--- a/vignettes/Alameda-May4-v6 output.xlsx
+++ b/vignettes/Alameda-May4-v6 output.xlsx
@@ -485,7 +485,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-04 23:43:16"</t>
+    <t xml:space="preserve">[1] "2020-05-05 10:44:12"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>

--- a/vignettes/Alameda-May4-v6 output.xlsx
+++ b/vignettes/Alameda-May4-v6 output.xlsx
@@ -485,7 +485,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-05 11:28:51"</t>
+    <t xml:space="preserve">[1] "2020-05-05 12:55:55"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>

--- a/vignettes/Alameda-May4-v6 output.xlsx
+++ b/vignettes/Alameda-May4-v6 output.xlsx
@@ -485,7 +485,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-05 12:55:55"</t>
+    <t xml:space="preserve">[1] "2020-05-05 13:14:47"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>

--- a/vignettes/Alameda-May4-v6 output.xlsx
+++ b/vignettes/Alameda-May4-v6 output.xlsx
@@ -17,22 +17,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">bestguess</t>
+    <t xml:space="preserve">upp</t>
   </si>
   <si>
     <t xml:space="preserve">notes</t>
   </si>
   <si>
     <t xml:space="preserve">Posterior Distribution, niter = 0
-Very low number of iterations, DO NOT use for inference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bestguess rejected</t>
+No credibility interval available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User's Prior Projection rejected</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -77,7 +77,670 @@
     <t xml:space="preserve">1:                            TRUE         FALSE                  10</t>
   </si>
   <si>
-    <t xml:space="preserve">$best.guess.params</t>
+    <t xml:space="preserve">$devlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quartz_off_screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$extras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$extras$`Parameters with Distributions`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      internal.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:                   weight.labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:               parameter.weights</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:                      r0.initial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:                   latent.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:    illness.length.given.nonhosp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:          infectious.to.hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:               prop.hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:             hosp.length.of.stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:                        prop.icu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:                       prop.vent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:              intervention1.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:        intervention1.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:       intervention1.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:              intervention2.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:        intervention2.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:       intervention2.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:              intervention3.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:        intervention3.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:       intervention3.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: patients.in.hosp.are.infectious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:                   use.hosp.rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                              external.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:                                                                    &lt;NA&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:                                                                  Priors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:                       Basic reproductive number R0 before Intervention1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:    Number of Days from Infection to Becoming Infectious (Latent Period)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:                                       Duration of infectiousness (days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:             Time from onset of infectiousness to hospitalization (days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:                               Percent of Infected that are Hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:                                  Average Hospital Length of Stay (Days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: Percent of Hospitalized COVID-19 Patients That are Currently in the ICU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:    Percent of COVID-19 Patients in the ICU who are Currently Ventilated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:                                              Date of first intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:                                             Date of second intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:                                              Date of third intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:                                     Patients in hospital are infectious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:   Contant rate to hospital (if FALSE, fixed number of days to hospital)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           low     midlow        mid    midhigh       high</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:         NA         NA Best Guess         NA         NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:       0.05       0.15        0.6       0.15       0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:        2.5          3          4          4        4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:          0          2          3          4          5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:          3          4          5          6          7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:          4          5          6          7          8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:       0.01       0.02       0.04       0.05       0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:          6          8         10         12         14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:        0.4       0.42       0.45       0.52       0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:        0.8       0.82       0.85       0.87        0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-03-06 2020-03-06 2020-03-06 2020-03-06 2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:        0.4        0.5       0.45        0.8          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:          3          5          7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-03-16 2020-03-16 2020-03-16 2020-03-16 2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:        0.3        0.4        0.5        0.8          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:          3          5          7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-06-01 2020-06-01 2020-06-01 2020-06-01 2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:        1.1        1.2        1.5        1.7          2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:          3          5          7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:      FALSE      FALSE       TRUE      FALSE      FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:      FALSE      FALSE       TRUE      FALSE      FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$extras$`Model Inputs`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        internal.name            external.name      value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   total.population Number of People in Area    1671000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2: start.display.date    Projection Start Date 2020-03-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:           end.date      Projection End Date 2020-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$extras$`Hospitilization Data`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Date LowerBound UpperBound</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1: 2020-04-01   51.88321   59.66569</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2: 2020-04-02   56.86563   65.39548</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3: 2020-04-03   61.68362   70.93617</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4: 2020-04-04   66.26620   76.20613</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5: 2020-04-05   70.60557   81.19641</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6: 2020-04-06   74.69862   85.90341</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7: 2020-04-07   78.82360   90.64714</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8: 2020-04-08   82.50392   94.87951</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: 2020-04-09   85.20577   97.98664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10: 2020-04-10   87.19809  100.27781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-04-11   88.66911  101.96948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12: 2020-04-12   89.34864  102.75094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13: 2020-04-13   88.25265  101.49055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-04-14   86.63990   99.63588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15: 2020-04-15   85.23594   98.02133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16: 2020-04-17   84.00665   96.60765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-04-18   83.83743   96.41305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18: 2020-04-19   83.86506   96.44481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19: 2020-04-20   83.89666   96.48116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: 2020-04-21   83.85270   96.43061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21: 2020-04-22   83.14715   95.61923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22: 2020-04-23   82.40143   94.76164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23: 2020-04-24   82.17643   94.50289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24: 2020-04-25   81.80076   94.07088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25: 2020-04-26   81.04030   93.19635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26: 2020-04-27   80.07035   92.08090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27: 2020-04-28   78.38229   90.13963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28: 2020-04-29   76.64307   88.13953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29: 2020-04-30   75.31391   86.61100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30: 2020-05-01   74.15291   85.27584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31: 2020-05-02   73.32236   84.32072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32: 2020-05-03   72.73400   83.64410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$extras$Internal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               internal.name      value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:          search.max.iter         20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:          search.expander          2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:      search.num.init.exp          9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:          max.nonconverge       0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:              random.seed      12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:           output.filestr         NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7: add.timestamp.to.filestr      FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:      min.obs.date.to.fit         NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:      max.obs.date.to.fit 2020-04-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:          main.iterations          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:    simulation.start.date 2020-01-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:   lower.bound.multiplier        0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:   upper.bound.multiplier        1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:       required.in.bounds          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:            show.progress       TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$extras$time.of.run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "2020-05-07 00:56:59"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$extras$LEMMA.version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     version </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"0.3.0.9004" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$hosp.bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          date    lower     upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1: 2020-04-01 51.88321  59.66569</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2: 2020-04-02 56.86563  65.39548</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3: 2020-04-03 61.68362  70.93617</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4: 2020-04-04 66.26620  76.20613</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5: 2020-04-05 70.60557  81.19641</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6: 2020-04-06 74.69862  85.90341</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7: 2020-04-07 78.82360  90.64714</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8: 2020-04-08 82.50392  94.87951</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: 2020-04-09 85.20577  97.98664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10: 2020-04-10 87.19809 100.27781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-04-11 88.66911 101.96948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12: 2020-04-12 89.34864 102.75094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13: 2020-04-13 88.25265 101.49055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-04-14 86.63990  99.63588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15: 2020-04-15 85.23594  98.02133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16: 2020-04-17 84.00665  96.60765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-04-18 83.83743  96.41305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18: 2020-04-19 83.86506  96.44481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19: 2020-04-20 83.89666  96.48116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: 2020-04-21 83.85270  96.43061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21: 2020-04-22 83.14715  95.61923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22: 2020-04-23 82.40143  94.76164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23: 2020-04-24 82.17643  94.50289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24: 2020-04-25 81.80076  94.07088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25: 2020-04-26 81.04030  93.19635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26: 2020-04-27 80.07035  92.08090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27: 2020-04-28 78.38229  90.13963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28: 2020-04-29 76.64307  88.13953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29: 2020-04-30 75.31391  86.61100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30: 2020-05-01 74.15291  85.27584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31: 2020-05-02 73.32236  84.32072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32: 2020-05-03 72.73400  83.64410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$search.max.iter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$search.expander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$search.num.init.exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$max.nonconverge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$random.seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$output.filestr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "Alameda-May4-v6 output"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$add.timestamp.to.filestr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$min.obs.date.to.fit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$max.obs.date.to.fit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "2020-04-10"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$main.iterations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$simulation.start.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "2020-01-23"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$lower.bound.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$upper.bound.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$required.in.bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$show.progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$plot.observed.data.long.term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$plot.observed.data.short.term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$lower.bound.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "Confirmed COVID19"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$upper.bound.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "Probable COVID19"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$model.inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$model.inputs$total.population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 1671000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$model.inputs$start.display.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "2020-03-15"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$model.inputs$end.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "2020-05-01"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$observed.data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          date     hosp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1: 2020-04-01 55.77445</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2: 2020-04-02 61.13056</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3: 2020-04-03 66.30990</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4: 2020-04-04 71.23616</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5: 2020-04-05 75.90099</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6: 2020-04-06 80.30101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7: 2020-04-07 84.73537</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8: 2020-04-08 88.69171</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: 2020-04-09 91.59621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10: 2020-04-10 93.73795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$upp.params</t>
   </si>
   <si>
     <t xml:space="preserve">1:          4             3                            5              0.04</t>
@@ -99,657 +762,6 @@
   </si>
   <si>
     <t xml:space="preserve">1:                            TRUE          TRUE                   9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$devlist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quartz_off_screen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$extras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$extras$`Parameters with Distributions`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      internal.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:                   weight.labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:               parameter.weights</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:                      r0.initial</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:                   latent.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:    illness.length.given.nonhosp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:          infectious.to.hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:               prop.hospitalized</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:             hosp.length.of.stay</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:                        prop.icu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:                       prop.vent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:              intervention1.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:        intervention1.multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:       intervention1.smooth.days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:              intervention2.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:        intervention2.multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:       intervention2.smooth.days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:              intervention3.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:        intervention3.multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:       intervention3.smooth.days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20: patients.in.hosp.are.infectious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:                   use.hosp.rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                              external.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:                                                                    &lt;NA&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:                                                                  Priors</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:                       Basic reproductive number R0 before Intervention1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:    Number of Days from Infection to Becoming Infectious (Latent Period)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:                                       Duration of infectiousness (days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:             Time from onset of infectiousness to hospitalization (days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:                               Percent of Infected that are Hospitalized</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:                                  Average Hospital Length of Stay (Days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9: Percent of Hospitalized COVID-19 Patients That are Currently in the ICU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:    Percent of COVID-19 Patients in the ICU who are Currently Ventilated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:                                              Date of first intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:                                                           Re multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:                                                    Days to reach new Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:                                             Date of second intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:                                                           Re multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:                                                    Days to reach new Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:                                              Date of third intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:                                                           Re multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:                                                    Days to reach new Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:                                     Patients in hospital are infectious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:   Contant rate to hospital (if FALSE, fixed number of days to hospital)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           low     midlow        mid    midhigh       high</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:         NA         NA Best Guess         NA         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:       0.05       0.15        0.6       0.15       0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:        2.5          3          4          4        4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:          0          2          3          4          5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:          3          4          5          6          7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:          4          5          6          7          8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:       0.01       0.02       0.04       0.05       0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:          6          8         10         12         14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:        0.4       0.42       0.45       0.52       0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:        0.8       0.82       0.85       0.87        0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11: 2020-03-06 2020-03-06 2020-03-06 2020-03-06 2020-03-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:        0.4        0.5       0.45        0.8          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14: 2020-03-16 2020-03-16 2020-03-16 2020-03-16 2020-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:        0.3        0.4        0.5        0.8          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17: 2020-06-01 2020-06-01 2020-06-01 2020-06-01 2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:        1.1        1.2        1.5        1.7          2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:      FALSE      FALSE       TRUE      FALSE      FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:      FALSE      FALSE       TRUE      FALSE      FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$extras$`Model Inputs`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        internal.name            external.name      value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:   total.population Number of People in Area    1671000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2: start.display.date    Projection Start Date 2020-03-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:           end.date      Projection End Date 2020-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$extras$`Hospitilization Data`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Date LowerBound UpperBound</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1: 2020-04-01   51.88321   59.66569</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2: 2020-04-02   56.86563   65.39548</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3: 2020-04-03   61.68362   70.93617</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4: 2020-04-04   66.26620   76.20613</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5: 2020-04-05   70.60557   81.19641</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6: 2020-04-06   74.69862   85.90341</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7: 2020-04-07   78.82360   90.64714</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8: 2020-04-08   82.50392   94.87951</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9: 2020-04-09   85.20577   97.98664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10: 2020-04-10   87.19809  100.27781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11: 2020-04-11   88.66911  101.96948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12: 2020-04-12   89.34864  102.75094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13: 2020-04-13   88.25265  101.49055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14: 2020-04-14   86.63990   99.63588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15: 2020-04-15   85.23594   98.02133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16: 2020-04-17   84.00665   96.60765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17: 2020-04-18   83.83743   96.41305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18: 2020-04-19   83.86506   96.44481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19: 2020-04-20   83.89666   96.48116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20: 2020-04-21   83.85270   96.43061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21: 2020-04-22   83.14715   95.61923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22: 2020-04-23   82.40143   94.76164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23: 2020-04-24   82.17643   94.50289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24: 2020-04-25   81.80076   94.07088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25: 2020-04-26   81.04030   93.19635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26: 2020-04-27   80.07035   92.08090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27: 2020-04-28   78.38229   90.13963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28: 2020-04-29   76.64307   88.13953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29: 2020-04-30   75.31391   86.61100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30: 2020-05-01   74.15291   85.27584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31: 2020-05-02   73.32236   84.32072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32: 2020-05-03   72.73400   83.64410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$extras$Internal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               internal.name      value</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:          search.max.iter         20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:          search.expander          2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:      search.num.init.exp          9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:          max.nonconverge       0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:              random.seed      12345</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:           output.filestr         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7: add.timestamp.to.filestr      FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:      min.obs.date.to.fit         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:      max.obs.date.to.fit 2020-04-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:          main.iterations          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:    simulation.start.date 2020-01-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:   lower.bound.multiplier        0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:   upper.bound.multiplier        1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:       required.in.bounds          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:            show.progress       TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$extras$time.of.run</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] "2020-05-05 13:14:47"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$extras$LEMMA.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     version </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"0.3.0.9003" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$hosp.bounds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          date    lower     upper</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1: 2020-04-01 51.88321  59.66569</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2: 2020-04-02 56.86563  65.39548</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3: 2020-04-03 61.68362  70.93617</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4: 2020-04-04 66.26620  76.20613</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5: 2020-04-05 70.60557  81.19641</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6: 2020-04-06 74.69862  85.90341</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7: 2020-04-07 78.82360  90.64714</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8: 2020-04-08 82.50392  94.87951</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9: 2020-04-09 85.20577  97.98664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10: 2020-04-10 87.19809 100.27781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11: 2020-04-11 88.66911 101.96948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12: 2020-04-12 89.34864 102.75094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13: 2020-04-13 88.25265 101.49055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14: 2020-04-14 86.63990  99.63588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15: 2020-04-15 85.23594  98.02133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16: 2020-04-17 84.00665  96.60765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17: 2020-04-18 83.83743  96.41305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18: 2020-04-19 83.86506  96.44481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19: 2020-04-20 83.89666  96.48116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20: 2020-04-21 83.85270  96.43061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21: 2020-04-22 83.14715  95.61923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22: 2020-04-23 82.40143  94.76164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23: 2020-04-24 82.17643  94.50289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24: 2020-04-25 81.80076  94.07088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25: 2020-04-26 81.04030  93.19635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26: 2020-04-27 80.07035  92.08090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27: 2020-04-28 78.38229  90.13963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28: 2020-04-29 76.64307  88.13953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29: 2020-04-30 75.31391  86.61100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30: 2020-05-01 74.15291  85.27584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31: 2020-05-02 73.32236  84.32072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32: 2020-05-03 72.73400  83.64410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$search.max.iter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$search.expander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$search.num.init.exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$max.nonconverge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$random.seed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 12345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$output.filestr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] "Alameda-May4-v6 output"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$add.timestamp.to.filestr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$min.obs.date.to.fit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$max.obs.date.to.fit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] "2020-04-10"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$main.iterations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$simulation.start.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] "2020-01-23"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$lower.bound.multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$upper.bound.multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$required.in.bounds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$show.progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$plot.observed.data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$include.plot.caption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$model.inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$model.inputs$total.population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 1671000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$model.inputs$start.display.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] "2020-03-15"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$model.inputs$end.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] "2020-05-01"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$observed.data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          date     hosp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1: 2020-04-01 55.77445</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2: 2020-04-02 61.13056</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3: 2020-04-03 66.30990</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4: 2020-04-04 71.23616</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5: 2020-04-05 75.90099</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6: 2020-04-06 80.30101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7: 2020-04-07 84.73537</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8: 2020-04-08 88.69171</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9: 2020-04-09 91.59621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10: 2020-04-10 93.73795</t>
   </si>
 </sst>
 </file>
@@ -3940,17 +3952,17 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -3960,1092 +3972,1092 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>140</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>143</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>148</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>180</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>187</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>190</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>194</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>198</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>5</v>
+        <v>201</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>200</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>202</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>5</v>
+        <v>205</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>5</v>
+        <v>207</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>206</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>208</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>5</v>
+        <v>211</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>210</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>5</v>
+        <v>205</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>212</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238">
@@ -5055,12 +5067,12 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241">
@@ -5070,77 +5082,77 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>216</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>218</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>5</v>
+        <v>218</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>221</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>222</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>5</v>
+        <v>221</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="257">
@@ -5155,7 +5167,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="260">
@@ -5165,126 +5177,156 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>5</v>
+        <v>226</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>226</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>227</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>5</v>
+        <v>228</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>5</v>
+        <v>231</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>5</v>
+        <v>234</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>5</v>
+        <v>235</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>236</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
         <v>5</v>
       </c>
     </row>

--- a/vignettes/Alameda-May4-v6 output.xlsx
+++ b/vignettes/Alameda-May4-v6 output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,19 +50,19 @@
     <t xml:space="preserve">   hosp.length.of.stay  prop.icu prop.vent intervention1.date</t>
   </si>
   <si>
-    <t xml:space="preserve">1:                  12 0.3827197 0.8297564         2020-03-06</t>
+    <t xml:space="preserve">1:                  12 0.3827197 0.8297564         2020-03-07</t>
   </si>
   <si>
     <t xml:space="preserve">   intervention1.multiplier intervention1.smooth.days intervention2.date</t>
   </si>
   <si>
-    <t xml:space="preserve">1:                0.6032892                         7         2020-03-16</t>
+    <t xml:space="preserve">1:                0.6272484                         7         2020-03-17</t>
   </si>
   <si>
     <t xml:space="preserve">   intervention2.multiplier intervention2.smooth.days intervention3.date</t>
   </si>
   <si>
-    <t xml:space="preserve">1:                0.3420774                         5         2020-06-01</t>
+    <t xml:space="preserve">1:                0.3005138                         5         2020-06-01</t>
   </si>
   <si>
     <t xml:space="preserve">   intervention3.multiplier intervention3.smooth.days</t>
@@ -224,70 +224,70 @@
     <t xml:space="preserve">21:   Contant rate to hospital (if FALSE, fixed number of days to hospital)</t>
   </si>
   <si>
-    <t xml:space="preserve">           low     midlow        mid    midhigh       high</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:         NA         NA Best Guess         NA         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:       0.05       0.15        0.6       0.15       0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:        2.5          3          4          4        4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:          0          2          3          4          5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:          3          4          5          6          7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:          4          5          6          7          8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:       0.01       0.02       0.04       0.05       0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:          6          8         10         12         14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:        0.4       0.42       0.45       0.52       0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:        0.8       0.82       0.85       0.87        0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11: 2020-03-06 2020-03-06 2020-03-06 2020-03-06 2020-03-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:        0.4        0.5       0.45        0.8          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14: 2020-03-16 2020-03-16 2020-03-16 2020-03-16 2020-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:        0.3        0.4        0.5        0.8          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17: 2020-06-01 2020-06-01 2020-06-01 2020-06-01 2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:        1.1        1.2        1.5        1.7          2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:      FALSE      FALSE       TRUE      FALSE      FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:      FALSE      FALSE       TRUE      FALSE      FALSE</t>
+    <t xml:space="preserve">           low     midlow                 mid    midhigh       high</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:         NA         NA User's "Best Guess"         NA         NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:       0.05       0.15                 0.6       0.15       0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:        2.5          3                   4          4        4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:          0          2                   3          4          5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:          3          4                   5          6          7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:          4          5                   6          7          8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:       0.01       0.02                0.04       0.05       0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:          6          8                  10         12         14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:        0.4       0.42                0.45       0.52       0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:        0.8       0.82                0.85       0.87        0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-03-07 2020-03-07          2020-03-07 2020-03-07 2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:        0.4        0.5                 0.5        0.8          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:          3          5                   7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-03-17 2020-03-17          2020-03-17 2020-03-17 2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:        0.3        0.4                0.45        0.8          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:          3          5                   7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-06-01 2020-06-01          2020-06-01 2020-06-01 2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:        1.1        1.2                 1.5        1.7          2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:          3          5                   7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:      FALSE      FALSE                TRUE      FALSE      FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:      FALSE      FALSE                TRUE      FALSE      FALSE</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$`Model Inputs`</t>
@@ -302,7 +302,7 @@
     <t xml:space="preserve">2: start.display.date    Projection Start Date 2020-03-15</t>
   </si>
   <si>
-    <t xml:space="preserve">3:           end.date      Projection End Date 2020-05-01</t>
+    <t xml:space="preserve">3:           end.date      Projection End Date 2020-07-01</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$`Hospitilization Data`</t>
@@ -410,58 +410,70 @@
     <t xml:space="preserve">$extras$Internal</t>
   </si>
   <si>
-    <t xml:space="preserve">               internal.name      value</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:          search.max.iter         20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:          search.expander          2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:      search.num.init.exp          9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:          max.nonconverge       0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:              random.seed      12345</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:           output.filestr         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7: add.timestamp.to.filestr      FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:      min.obs.date.to.fit         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:      max.obs.date.to.fit 2020-04-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:          main.iterations          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:    simulation.start.date 2020-01-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:   lower.bound.multiplier        0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:   upper.bound.multiplier        1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:       required.in.bounds          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:            show.progress       TRUE</t>
+    <t xml:space="preserve">                    internal.name             value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:               search.max.iter                20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:               search.expander                 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:           search.num.init.exp                 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:               max.nonconverge              0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:                   random.seed             12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:                output.filestr                NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:      add.timestamp.to.filestr             FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:           min.obs.date.to.fit                NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:           max.obs.date.to.fit        2020-04-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:               main.iterations                 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:         simulation.start.date        2020-01-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:        lower.bound.multiplier               0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:        upper.bound.multiplier               1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:            required.in.bounds                 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:                 show.progress              TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:  plot.observed.data.long.term             FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: plot.observed.data.short.term              TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:             lower.bound.label Confirmed COVID19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:             upper.bound.label  Probable COVID19</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-07 00:56:59"</t>
+    <t xml:space="preserve">[1] "2020-05-07 13:12:37"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>
@@ -701,7 +713,7 @@
     <t xml:space="preserve">$model.inputs$end.date</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-01"</t>
+    <t xml:space="preserve">[1] "2020-07-01"</t>
   </si>
   <si>
     <t xml:space="preserve">$observed.data</t>
@@ -749,13 +761,13 @@
     <t xml:space="preserve">   hosp.length.of.stay prop.icu prop.vent intervention1.date</t>
   </si>
   <si>
-    <t xml:space="preserve">1:                  10     0.45      0.85         2020-03-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:                     0.45                         7         2020-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:                      0.5                         7         2020-06-01</t>
+    <t xml:space="preserve">1:                  10     0.45      0.85         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                      0.5                         7         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                     0.45                         7         2020-06-01</t>
   </si>
   <si>
     <t xml:space="preserve">1:                      1.5                         7</t>
@@ -1126,7 +1138,7 @@
         <v>43905</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>21.4191910660995</v>
+        <v>16.3574756100216</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1137,7 +1149,7 @@
         <v>43906</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>24.5709168894207</v>
+        <v>19.1562671370421</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1148,7 +1160,7 @@
         <v>43907</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>27.9177641262243</v>
+        <v>22.1914965004159</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1159,7 +1171,7 @@
         <v>43908</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>31.4814047142687</v>
+        <v>25.4874062625849</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1170,7 +1182,7 @@
         <v>43909</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>35.2269940957554</v>
+        <v>29.0759967645603</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1181,7 +1193,7 @@
         <v>43910</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>39.0933640541725</v>
+        <v>32.9207789064261</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1192,7 +1204,7 @@
         <v>43911</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43.0057998633277</v>
+        <v>36.9527705457334</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1203,7 +1215,7 @@
         <v>43912</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>46.883011694089</v>
+        <v>41.0851944858892</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1214,7 +1226,7 @@
         <v>43913</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>50.6420485744305</v>
+        <v>45.2217257760366</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1225,7 +1237,7 @@
         <v>43914</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>54.2023216156974</v>
+        <v>49.2626799501834</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1236,7 +1248,7 @@
         <v>43915</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>57.4890330928343</v>
+        <v>53.1103426265932</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1247,7 +1259,7 @@
         <v>43916</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>60.4804558244636</v>
+        <v>56.6736377365162</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1258,7 +1270,7 @@
         <v>43917</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>63.1797929562264</v>
+        <v>59.9238378982342</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1269,7 +1281,7 @@
         <v>43918</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>65.6015274780465</v>
+        <v>62.8616347234241</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1280,7 +1292,7 @@
         <v>43919</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>67.7647910039724</v>
+        <v>65.5011596993896</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1291,7 +1303,7 @@
         <v>43920</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>69.6901435962627</v>
+        <v>67.8622154769354</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1302,7 +1314,7 @@
         <v>43921</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>71.3980190335155</v>
+        <v>69.9664964834484</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1313,7 +1325,7 @@
         <v>43922</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>72.9079887915914</v>
+        <v>71.8357570596974</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1324,7 +1336,7 @@
         <v>43923</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>74.2384322683839</v>
+        <v>73.4909369245292</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1335,7 +1347,7 @@
         <v>43924</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>75.4064109719722</v>
+        <v>74.9517617658793</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1346,7 +1358,7 @@
         <v>43925</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>76.4276464356069</v>
+        <v>76.2365825882111</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1357,7 +1369,7 @@
         <v>43926</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>77.3165514113861</v>
+        <v>77.3623367612535</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1368,7 +1380,7 @@
         <v>43927</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>78.086288383063</v>
+        <v>78.3445719043804</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1379,7 +1391,7 @@
         <v>43928</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>78.7488416376056</v>
+        <v>79.1975023422603</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1390,7 +1402,7 @@
         <v>43929</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>79.3150953321186</v>
+        <v>79.9340821008559</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1401,7 +1413,7 @@
         <v>43930</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>79.7949132320668</v>
+        <v>80.566085632666</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1412,7 +1424,7 @@
         <v>43931</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>80.197217557705</v>
+        <v>81.1041912266811</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1423,7 +1435,7 @@
         <v>43932</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>80.530065381162</v>
+        <v>81.5580641012501</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1434,7 +1446,7 @@
         <v>43933</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>80.8007216233431</v>
+        <v>81.9364373415759</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1445,7 +1457,7 @@
         <v>43934</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>81.0157280863119</v>
+        <v>82.2471895441258</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1456,7 +1468,7 @@
         <v>43935</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>81.180968214684</v>
+        <v>82.4974184760626</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1467,7 +1479,7 @@
         <v>43936</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>81.3017274574512</v>
+        <v>82.693510355384</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1478,7 +1490,7 @@
         <v>43937</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>81.3827492266736</v>
+        <v>82.8412045632085</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1489,7 +1501,7 @@
         <v>43938</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>81.4282865376829</v>
+        <v>82.9456537448861</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1500,7 +1512,7 @@
         <v>43939</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>81.4421494769944</v>
+        <v>83.0114793597864</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1511,7 +1523,7 @@
         <v>43940</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>81.4277486858789</v>
+        <v>83.0428228123572</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1522,7 +1534,7 @@
         <v>43941</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>81.3881350743952</v>
+        <v>83.0433923471623</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1533,7 +1545,7 @@
         <v>43942</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>81.3260359962434</v>
+        <v>83.0165059236537</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1544,7 +1556,7 @@
         <v>43943</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>81.2438881218413</v>
+        <v>82.9651303065256</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1555,7 +1567,7 @@
         <v>43944</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>81.143867247693</v>
+        <v>82.8919166177618</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1566,7 +1578,7 @@
         <v>43945</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>81.0279152760826</v>
+        <v>82.7992325993692</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1577,7 +1589,7 @@
         <v>43946</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>80.8977645917056</v>
+        <v>82.6891918331808</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1588,7 +1600,7 @@
         <v>43947</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>80.7549600520691</v>
+        <v>82.5636801575062</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1599,7 +1611,7 @@
         <v>43948</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>80.6008787971579</v>
+        <v>82.4243795109861</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1610,7 +1622,7 @@
         <v>43949</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>80.4367480715904</v>
+        <v>82.2727894226764</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1621,7 +1633,7 @@
         <v>43950</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>80.2636612397596</v>
+        <v>82.1102463548661</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1632,7 +1644,7 @@
         <v>43951</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>80.0825921616257</v>
+        <v>81.9379410919656</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1643,9 +1655,680 @@
         <v>43952</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>79.8944080841669</v>
+        <v>81.7569343554083</v>
       </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>81.5681708111991</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>81.3724916237475</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>81.1706456971094</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>80.9632997328322</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>80.7510472223393</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>80.534416481225</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>80.3138778229937</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>80.0898499606513</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>79.8627057161392</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>79.6327771098626</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>79.4003598954721</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>79.165717598583</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>78.9290851122174</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>78.69067189639</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>78.4506648244002</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>78.2092307139874</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>77.9665185775351</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>77.7226616219159</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>77.4777790253434</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>77.2319775156844</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>76.9853527720747</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>76.7379906693346</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>76.4899683825762</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>76.2413553675127</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>75.9922142302877</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>75.7426014991382</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>75.4925683088523</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>75.2421610077798</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>74.9914216960764</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>74.7403887029035</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>74.4890970094492</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>74.2375786238724</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>73.9858629135945</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>73.7570664646105</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>73.5847413561623</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>43988</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>73.5070739248906</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>73.5646047583716</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>73.7997739575051</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>74.2574537363981</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>74.9860799815513</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>43993</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>76.0012757186033</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>77.3050744997476</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>78.8942445801005</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>80.7639054572232</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>82.9091038201835</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>85.3254996700279</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>88.0096606376115</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>90.9591812079374</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>44001</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>94.1727220598844</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>44002</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>97.6500120479697</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>101.391832344822</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>105.399992083316</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>109.677300229739</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>114.227536253482</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>119.055421079867</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>124.166589231418</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>129.567562719884</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>135.265727030384</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>44011</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>141.269309386491</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>147.5873593744</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>154.22973192184</v>
+      </c>
+      <c r="C110" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1679,7 +2362,7 @@
         <v>43905</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>9.63863597974475</v>
+        <v>7.36086402450973</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1690,7 +2373,7 @@
         <v>43906</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>11.0569126002393</v>
+        <v>8.62032021166894</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1701,7 +2384,7 @@
         <v>43907</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>12.5629938568009</v>
+        <v>9.98617342518715</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1712,7 +2395,7 @@
         <v>43908</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>14.1666321214209</v>
+        <v>11.4693328181632</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1723,7 +2406,7 @@
         <v>43909</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>15.8521473430899</v>
+        <v>13.0841985440521</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1734,7 +2417,7 @@
         <v>43910</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>17.5920138243776</v>
+        <v>14.8143505078917</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1745,7 +2428,7 @@
         <v>43911</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>19.3526099384975</v>
+        <v>16.62874674558</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1756,7 +2439,7 @@
         <v>43912</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>21.09735526234</v>
+        <v>18.4883375186501</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1767,7 +2450,7 @@
         <v>43913</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>22.7889218584937</v>
+        <v>20.3497765992165</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1778,7 +2461,7 @@
         <v>43914</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>24.3910447270638</v>
+        <v>22.1682059775825</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1789,7 +2472,7 @@
         <v>43915</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>25.8700648917754</v>
+        <v>23.899654181967</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1800,7 +2483,7 @@
         <v>43916</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>27.2162051210086</v>
+        <v>25.5031369814323</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1811,7 +2494,7 @@
         <v>43917</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>28.4309068303019</v>
+        <v>26.9657270542054</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1822,7 +2505,7 @@
         <v>43918</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>29.5206873651209</v>
+        <v>28.2877356255408</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1833,7 +2516,7 @@
         <v>43919</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>30.4941559517876</v>
+        <v>29.4755218647253</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1844,7 +2527,7 @@
         <v>43920</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>31.3605646183182</v>
+        <v>30.5379969646209</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1855,7 +2538,7 @@
         <v>43921</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>32.129108565082</v>
+        <v>31.4849234175518</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1866,7 +2549,7 @@
         <v>43922</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>32.8085949562161</v>
+        <v>32.3260906768638</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1877,7 +2560,7 @@
         <v>43923</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>33.4072945207728</v>
+        <v>33.0709216160381</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1888,7 +2571,7 @@
         <v>43924</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>33.9328849373875</v>
+        <v>33.7282927946457</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1899,7 +2582,7 @@
         <v>43925</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>34.3924408960231</v>
+        <v>34.306462164695</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1910,7 +2593,7 @@
         <v>43926</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>34.7924481351237</v>
+        <v>34.8130515425641</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1921,7 +2604,7 @@
         <v>43927</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>35.1388297723784</v>
+        <v>35.2550573569712</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1932,7 +2615,7 @@
         <v>43928</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>35.4369787369225</v>
+        <v>35.6388760540171</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1943,7 +2626,7 @@
         <v>43929</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>35.6917928994534</v>
+        <v>35.9703369453851</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1954,7 +2637,7 @@
         <v>43930</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>35.9077109544301</v>
+        <v>36.2547385346997</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1965,7 +2648,7 @@
         <v>43931</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>36.0887479009672</v>
+        <v>36.4968860520065</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1976,7 +2659,7 @@
         <v>43932</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>36.2385294215229</v>
+        <v>36.7011288455625</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1987,7 +2670,7 @@
         <v>43933</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>36.3603247305044</v>
+        <v>36.8713968037092</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1998,7 +2681,7 @@
         <v>43934</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>36.4570776388404</v>
+        <v>37.0112352948566</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2009,7 +2692,7 @@
         <v>43935</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>36.5314356966078</v>
+        <v>37.1238383142282</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2020,7 +2703,7 @@
         <v>43936</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>36.5857773558531</v>
+        <v>37.2120796599228</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2031,7 +2714,7 @@
         <v>43937</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>36.6222371520031</v>
+        <v>37.2785420534438</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2042,7 +2725,7 @@
         <v>43938</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>36.6427289419573</v>
+        <v>37.3255441851987</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2053,7 +2736,7 @@
         <v>43939</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>36.6489672646475</v>
+        <v>37.3551657119039</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2064,7 +2747,7 @@
         <v>43940</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>36.6424869086455</v>
+        <v>37.3692702655608</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2075,7 +2758,7 @@
         <v>43941</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>36.6246607834778</v>
+        <v>37.369526556223</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2086,7 +2769,7 @@
         <v>43942</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>36.5967161983095</v>
+        <v>37.3574276656442</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2097,7 +2780,7 @@
         <v>43943</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>36.5597496548286</v>
+        <v>37.3343086379365</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2108,7 +2791,7 @@
         <v>43944</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>36.5147402614618</v>
+        <v>37.3013624779928</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2119,7 +2802,7 @@
         <v>43945</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>36.4625618742372</v>
+        <v>37.2596546697162</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2130,7 +2813,7 @@
         <v>43946</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>36.4039940662675</v>
+        <v>37.2101363249314</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2141,7 +2824,7 @@
         <v>43947</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>36.3397320234311</v>
+        <v>37.1536560708778</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2152,7 +2835,7 @@
         <v>43948</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>36.2703954587211</v>
+        <v>37.0909707799437</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2163,7 +2846,7 @@
         <v>43949</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>36.1965366322157</v>
+        <v>37.0227552402044</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2174,7 +2857,7 @@
         <v>43950</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>36.1186475578918</v>
+        <v>36.9496108596898</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2185,7 +2868,7 @@
         <v>43951</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>36.0371664727316</v>
+        <v>36.8720734913845</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2196,9 +2879,680 @@
         <v>43952</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>35.9524836378751</v>
+        <v>36.7906204599337</v>
       </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>36.7056768650396</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>36.6176212306864</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>36.5267905636992</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>36.4334848797745</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>36.3379712500527</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>36.2404874165512</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>36.1412450203472</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>36.0404324822931</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>35.9382175722627</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>35.8347496994382</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>35.7301619529624</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>35.6245729193624</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>35.5180883004978</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>35.4108023533755</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>35.3027991709801</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>35.1941538212943</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>35.0849333598908</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>34.9751977298622</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>34.8650005614045</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>34.754389882058</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>34.6434087474336</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>34.5320958012006</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>34.4204857721593</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>34.3086099153807</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>34.1964964036295</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>34.0841706746122</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>33.9716557389835</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B77" s="3" t="n">
+        <v>33.8589724535009</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>33.7461397632344</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B79" s="3" t="n">
+        <v>33.6331749163066</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>33.5200936542521</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B81" s="3" t="n">
+        <v>33.4069103807426</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B82" s="3" t="n">
+        <v>33.2936383111175</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B83" s="3" t="n">
+        <v>33.1906799090747</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B84" s="3" t="n">
+        <v>33.113133610273</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>43988</v>
+      </c>
+      <c r="B85" s="3" t="n">
+        <v>33.0781832662008</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B86" s="3" t="n">
+        <v>33.1040721412672</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B87" s="3" t="n">
+        <v>33.2098982808773</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B88" s="3" t="n">
+        <v>33.4158541813791</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B89" s="3" t="n">
+        <v>33.7437359916981</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>43993</v>
+      </c>
+      <c r="B90" s="3" t="n">
+        <v>34.2005740733715</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B91" s="3" t="n">
+        <v>34.7872835248864</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B92" s="3" t="n">
+        <v>35.5024100610452</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B93" s="3" t="n">
+        <v>36.3437574557505</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B94" s="3" t="n">
+        <v>37.3090967190826</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B95" s="3" t="n">
+        <v>38.3964748515126</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B96" s="3" t="n">
+        <v>39.6043472869252</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B97" s="3" t="n">
+        <v>40.9316315435719</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>44001</v>
+      </c>
+      <c r="B98" s="3" t="n">
+        <v>42.377724926948</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>44002</v>
+      </c>
+      <c r="B99" s="3" t="n">
+        <v>43.9425054215864</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B100" s="3" t="n">
+        <v>45.62632455517</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B101" s="3" t="n">
+        <v>47.4299964374921</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B102" s="3" t="n">
+        <v>49.3547851033824</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B103" s="3" t="n">
+        <v>51.402391314067</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B104" s="3" t="n">
+        <v>53.5749394859402</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B105" s="3" t="n">
+        <v>55.8749651541383</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B106" s="3" t="n">
+        <v>58.3054032239477</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B107" s="3" t="n">
+        <v>60.8695771636728</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>44011</v>
+      </c>
+      <c r="B108" s="3" t="n">
+        <v>63.5711892239209</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B109" s="3" t="n">
+        <v>66.41431171848</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B110" s="3" t="n">
+        <v>69.4033793648281</v>
+      </c>
+      <c r="C110" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2232,7 +3586,7 @@
         <v>43905</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.19284058278304</v>
+        <v>6.25673442083327</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -2243,7 +3597,7 @@
         <v>43906</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.39837571020341</v>
+        <v>7.3272721799186</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -2254,7 +3608,7 @@
         <v>43907</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.6785447782808</v>
+        <v>8.48824741140908</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2265,7 +3619,7 @@
         <v>43908</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.0416373032078</v>
+        <v>9.74893289543873</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2276,7 +3630,7 @@
         <v>43909</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>13.4743252416264</v>
+        <v>11.1215687624443</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2287,7 +3641,7 @@
         <v>43910</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>14.953211750721</v>
+        <v>12.592197931708</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2298,7 +3652,7 @@
         <v>43911</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>16.4497184477229</v>
+        <v>14.134434733743</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2309,7 +3663,7 @@
         <v>43912</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>17.932751972989</v>
+        <v>15.7150868908526</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2320,7 +3674,7 @@
         <v>43913</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>19.3705835797197</v>
+        <v>17.297310109334</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2331,7 +3685,7 @@
         <v>43914</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>20.7323880180042</v>
+        <v>18.8429750809451</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2342,7 +3696,7 @@
         <v>43915</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>21.9895551580091</v>
+        <v>20.3147060546719</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2353,7 +3707,7 @@
         <v>43916</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>23.1337743528573</v>
+        <v>21.6776664342174</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2364,7 +3718,7 @@
         <v>43917</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>24.1662708057566</v>
+        <v>22.9208679960746</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2375,7 +3729,7 @@
         <v>43918</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>25.0925842603528</v>
+        <v>24.0445752817097</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2386,7 +3740,7 @@
         <v>43919</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>25.9200325590194</v>
+        <v>25.0541935850165</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2397,7 +3751,7 @@
         <v>43920</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>26.6564799255705</v>
+        <v>25.9572974199278</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2408,7 +3762,7 @@
         <v>43921</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>27.3097422803197</v>
+        <v>26.762184904919</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2419,7 +3773,7 @@
         <v>43922</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>27.8873057127837</v>
+        <v>27.4771770753342</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2430,7 +3784,7 @@
         <v>43923</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>28.3962003426569</v>
+        <v>28.1102833736324</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2441,7 +3795,7 @@
         <v>43924</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>28.8429521967794</v>
+        <v>28.6690488754488</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2452,7 +3806,7 @@
         <v>43925</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>29.2335747616196</v>
+        <v>29.1604928399907</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2463,7 +3817,7 @@
         <v>43926</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>29.5735809148552</v>
+        <v>29.5910938111795</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2474,7 +3828,7 @@
         <v>43927</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>29.8680053065216</v>
+        <v>29.9667987534255</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2485,7 +3839,7 @@
         <v>43928</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>30.1214319263841</v>
+        <v>30.2930446459146</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2496,7 +3850,7 @@
         <v>43929</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>30.3380239645354</v>
+        <v>30.5747864035774</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2507,7 +3861,7 @@
         <v>43930</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>30.5215543112656</v>
+        <v>30.8165277544948</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2518,7 +3872,7 @@
         <v>43931</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>30.6754357158222</v>
+        <v>31.0223531442055</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2529,7 +3883,7 @@
         <v>43932</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>30.8027500082945</v>
+        <v>31.1959595187281</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2540,7 +3894,7 @@
         <v>43933</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>30.9062760209287</v>
+        <v>31.3406872831528</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2551,7 +3905,7 @@
         <v>43934</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>30.9885159930143</v>
+        <v>31.4595500006281</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2562,7 +3916,7 @@
         <v>43935</v>
       </c>
       <c r="B32" s="4" t="n">
-        <v>31.0517203421166</v>
+        <v>31.5552625670939</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2573,7 +3927,7 @@
         <v>43936</v>
       </c>
       <c r="B33" s="4" t="n">
-        <v>31.0979107524751</v>
+        <v>31.6302677109344</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2584,7 +3938,7 @@
         <v>43937</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>31.1289015792026</v>
+        <v>31.6867607454273</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2595,7 +3949,7 @@
         <v>43938</v>
       </c>
       <c r="B35" s="4" t="n">
-        <v>31.1463196006637</v>
+        <v>31.7267125574189</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2606,7 +3960,7 @@
         <v>43939</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>31.1516221749504</v>
+        <v>31.7518908551183</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2617,7 +3971,7 @@
         <v>43940</v>
       </c>
       <c r="B37" s="4" t="n">
-        <v>31.1461138723487</v>
+        <v>31.7638797257266</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2628,7 +3982,7 @@
         <v>43941</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>31.1309616659562</v>
+        <v>31.7640975727896</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2639,7 +3993,7 @@
         <v>43942</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>31.1072087685631</v>
+        <v>31.7538135157975</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2650,7 +4004,7 @@
         <v>43943</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>31.0757872066043</v>
+        <v>31.7341623422461</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2661,7 +4015,7 @@
         <v>43944</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>31.0375292222426</v>
+        <v>31.7061581062939</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2672,7 +4026,7 @@
         <v>43945</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>30.9931775931016</v>
+        <v>31.6707064692587</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2683,7 +4037,7 @@
         <v>43946</v>
       </c>
       <c r="B43" s="4" t="n">
-        <v>30.9433949563274</v>
+        <v>31.6286158761917</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2694,7 +4048,7 @@
         <v>43947</v>
       </c>
       <c r="B44" s="4" t="n">
-        <v>30.8887722199164</v>
+        <v>31.5806076602461</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2705,7 +4059,7 @@
         <v>43948</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>30.8298361399129</v>
+        <v>31.5273251629522</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2716,7 +4070,7 @@
         <v>43949</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>30.7670561373833</v>
+        <v>31.4693419541737</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2727,7 +4081,7 @@
         <v>43950</v>
       </c>
       <c r="B47" s="4" t="n">
-        <v>30.7008504242081</v>
+        <v>31.4071692307363</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2738,7 +4092,7 @@
         <v>43951</v>
       </c>
       <c r="B48" s="4" t="n">
-        <v>30.6315915018218</v>
+        <v>31.3412624676769</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2749,9 +4103,680 @@
         <v>43952</v>
       </c>
       <c r="B49" s="4" t="n">
-        <v>30.5596110921938</v>
+        <v>31.2720273909437</v>
       </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B50" s="4" t="n">
+        <v>31.1998253352836</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B51" s="4" t="n">
+        <v>31.1249780460834</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B52" s="4" t="n">
+        <v>31.0477719791444</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B53" s="4" t="n">
+        <v>30.9684621478083</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B54" s="4" t="n">
+        <v>30.8872755625448</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B55" s="4" t="n">
+        <v>30.8044143040686</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B56" s="4" t="n">
+        <v>30.7200582672951</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B57" s="4" t="n">
+        <v>30.6343676099491</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B58" s="4" t="n">
+        <v>30.5474849364233</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B59" s="4" t="n">
+        <v>30.4595372445225</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B60" s="4" t="n">
+        <v>30.3706376600181</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B61" s="4" t="n">
+        <v>30.280886981458</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B62" s="4" t="n">
+        <v>30.1903750554232</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B63" s="4" t="n">
+        <v>30.0991820003692</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B64" s="4" t="n">
+        <v>30.0073792953331</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B65" s="4" t="n">
+        <v>29.9150307481002</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B66" s="4" t="n">
+        <v>29.8221933559072</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B67" s="4" t="n">
+        <v>29.7289180703828</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B68" s="4" t="n">
+        <v>29.6352504771938</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B69" s="4" t="n">
+        <v>29.5412313997493</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B70" s="4" t="n">
+        <v>29.4468974353186</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B71" s="4" t="n">
+        <v>29.3522814310205</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B72" s="4" t="n">
+        <v>29.2574129063354</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B73" s="4" t="n">
+        <v>29.1623184280736</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B74" s="4" t="n">
+        <v>29.067021943085</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B75" s="4" t="n">
+        <v>28.9715450734204</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B76" s="4" t="n">
+        <v>28.875907378136</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B77" s="4" t="n">
+        <v>28.7801265854758</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B78" s="4" t="n">
+        <v>28.6842187987492</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B79" s="4" t="n">
+        <v>28.5881986788606</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B80" s="4" t="n">
+        <v>28.4920796061143</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B81" s="4" t="n">
+        <v>28.3958738236312</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B82" s="4" t="n">
+        <v>28.2995925644499</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B83" s="4" t="n">
+        <v>28.2120779227135</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B84" s="4" t="n">
+        <v>28.1461635687321</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>43988</v>
+      </c>
+      <c r="B85" s="4" t="n">
+        <v>28.1164557762707</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B86" s="4" t="n">
+        <v>28.1384613200771</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B87" s="4" t="n">
+        <v>28.2284135387457</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B88" s="4" t="n">
+        <v>28.4034760541723</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B89" s="4" t="n">
+        <v>28.6821755929434</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>43993</v>
+      </c>
+      <c r="B90" s="4" t="n">
+        <v>29.0704879623658</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B91" s="4" t="n">
+        <v>29.5691909961534</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B92" s="4" t="n">
+        <v>30.1770485518884</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B93" s="4" t="n">
+        <v>30.8921938373879</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B94" s="4" t="n">
+        <v>31.7127322112202</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B95" s="4" t="n">
+        <v>32.6370036237857</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B96" s="4" t="n">
+        <v>33.6636951938864</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B97" s="4" t="n">
+        <v>34.7918868120361</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>44001</v>
+      </c>
+      <c r="B98" s="4" t="n">
+        <v>36.0210661879058</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>44002</v>
+      </c>
+      <c r="B99" s="4" t="n">
+        <v>37.3511296083484</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B100" s="4" t="n">
+        <v>38.7823758718945</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B101" s="4" t="n">
+        <v>40.3154969718683</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B102" s="4" t="n">
+        <v>41.951567337875</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B103" s="4" t="n">
+        <v>43.692032616957</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B104" s="4" t="n">
+        <v>45.5386985630491</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B105" s="4" t="n">
+        <v>47.4937203810176</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B106" s="4" t="n">
+        <v>49.5595927403556</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B107" s="4" t="n">
+        <v>51.7391405891219</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>44011</v>
+      </c>
+      <c r="B108" s="4" t="n">
+        <v>54.0355108403328</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B109" s="4" t="n">
+        <v>56.452164960708</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B110" s="4" t="n">
+        <v>58.9928724601039</v>
+      </c>
+      <c r="C110" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2785,7 +4810,7 @@
         <v>43905</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>1365.66092337411</v>
+        <v>1187.06967385521</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -2796,7 +4821,7 @@
         <v>43906</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>1492.04427319861</v>
+        <v>1318.1832043589</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -2807,7 +4832,7 @@
         <v>43907</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>1603.00603738522</v>
+        <v>1464.29228254399</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2818,7 +4843,7 @@
         <v>43908</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>1697.27033348057</v>
+        <v>1593.63955234479</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2829,7 +4854,7 @@
         <v>43909</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>1772.83152362115</v>
+        <v>1704.54605205606</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2840,7 +4865,7 @@
         <v>43910</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>1828.01151311422</v>
+        <v>1794.19889031704</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2851,7 +4876,7 @@
         <v>43911</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>1861.80872049214</v>
+        <v>1860.21999183624</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2862,7 +4887,7 @@
         <v>43912</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>1873.99676986749</v>
+        <v>1901.16454192177</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2873,7 +4898,7 @@
         <v>43913</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>1865.1117481021</v>
+        <v>1916.65774552005</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2884,7 +4909,7 @@
         <v>43914</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>1856.37129885918</v>
+        <v>1907.3700775286</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2895,7 +4920,7 @@
         <v>43915</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>1847.91222784916</v>
+        <v>1898.21000227923</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2906,7 +4931,7 @@
         <v>43916</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>1839.77646403437</v>
+        <v>1889.34224609983</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2917,7 +4942,7 @@
         <v>43917</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>1831.96279102826</v>
+        <v>1880.82006802137</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2928,7 +4953,7 @@
         <v>43918</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>1824.45152832872</v>
+        <v>1872.64580668031</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2939,7 +4964,7 @@
         <v>43919</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>1817.21619121545</v>
+        <v>1864.7997905228</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2950,7 +4975,7 @@
         <v>43920</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1810.22889279239</v>
+        <v>1857.25401715138</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2961,7 +4986,7 @@
         <v>43921</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>1803.46274904685</v>
+        <v>1849.97851079332</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2972,7 +4997,7 @@
         <v>43922</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1796.89285834459</v>
+        <v>1842.94417114889</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2983,7 +5008,7 @@
         <v>43923</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>1790.49661174831</v>
+        <v>1836.12395143939</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2994,7 +5019,7 @@
         <v>43924</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>1784.25369738292</v>
+        <v>1829.49325047063</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3005,7 +5030,7 @@
         <v>43925</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>1778.14597247531</v>
+        <v>1823.02994378609</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3016,7 +5041,7 @@
         <v>43926</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>1772.15728533634</v>
+        <v>1816.71425726255</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3027,7 +5052,7 @@
         <v>43927</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>1766.27328559486</v>
+        <v>1810.52857964214</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3038,7 +5063,7 @@
         <v>43928</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>1760.48123990617</v>
+        <v>1804.45725906623</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3049,7 +5074,7 @@
         <v>43929</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>1754.76986029802</v>
+        <v>1798.48640399008</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3060,7 +5085,7 @@
         <v>43930</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>1749.12914757258</v>
+        <v>1792.60369707115</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3071,7 +5096,7 @@
         <v>43931</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>1743.55024999344</v>
+        <v>1786.79822505236</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3082,7 +5107,7 @@
         <v>43932</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>1738.02533652288</v>
+        <v>1781.06032508235</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3093,7 +5118,7 @@
         <v>43933</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>1732.54748349397</v>
+        <v>1775.38144676882</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3104,7 +5129,7 @@
         <v>43934</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>1727.11057349501</v>
+        <v>1769.75402880012</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3115,7 +5140,7 @@
         <v>43935</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1721.70920526214</v>
+        <v>1764.17138882989</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3126,7 +5151,7 @@
         <v>43936</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1716.33861344804</v>
+        <v>1758.62762532815</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3137,7 +5162,7 @@
         <v>43937</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1710.99459722649</v>
+        <v>1753.11753017455</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3148,7 +5173,7 @@
         <v>43938</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>1705.67345678878</v>
+        <v>1747.63651086604</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3159,7 +5184,7 @@
         <v>43939</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>1700.37193688075</v>
+        <v>1742.18052131453</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3170,7 +5195,7 @@
         <v>43940</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>1695.0871766159</v>
+        <v>1736.74600030962</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3181,7 +5206,7 @@
         <v>43941</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>1689.81666487976</v>
+        <v>1731.32981681564</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3192,7 +5217,7 @@
         <v>43942</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>1684.55820071285</v>
+        <v>1725.92922135812</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3203,7 +5228,7 @@
         <v>43943</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>1679.30985812463</v>
+        <v>1720.54180283339</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3214,7 +5239,7 @@
         <v>43944</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>1674.06995484989</v>
+        <v>1715.16545014557</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3225,7 +5250,7 @@
         <v>43945</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>1668.83702461134</v>
+        <v>1709.7983181391</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3236,7 +5261,7 @@
         <v>43946</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>1663.60979249965</v>
+        <v>1704.43879735201</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3247,7 +5272,7 @@
         <v>43947</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>1658.38715312452</v>
+        <v>1699.08548716689</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3258,7 +5283,7 @@
         <v>43948</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>1653.16815122792</v>
+        <v>1693.73717198196</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3269,7 +5294,7 @@
         <v>43949</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>1647.95196448487</v>
+        <v>1688.39280006626</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3280,7 +5305,7 @@
         <v>43950</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>1642.73788824699</v>
+        <v>1683.05146479946</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3291,7 +5316,7 @@
         <v>43951</v>
       </c>
       <c r="B48" s="5" t="n">
-        <v>1637.52532201125</v>
+        <v>1677.71238802997</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3302,9 +5327,680 @@
         <v>43952</v>
       </c>
       <c r="B49" s="5" t="n">
-        <v>1632.31375742034</v>
+        <v>1672.37490531401</v>
       </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B50" s="5" t="n">
+        <v>1667.03845282486</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B51" s="5" t="n">
+        <v>1661.70255574463</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B52" s="5" t="n">
+        <v>1656.36681797174</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B53" s="5" t="n">
+        <v>1651.03091299607</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B54" s="5" t="n">
+        <v>1645.69457580986</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B55" s="5" t="n">
+        <v>1640.35759573765</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B56" s="5" t="n">
+        <v>1635.01981008113</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B57" s="5" t="n">
+        <v>1629.68109848689</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B58" s="5" t="n">
+        <v>1624.34137795495</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B59" s="5" t="n">
+        <v>1619.00059841568</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B60" s="5" t="n">
+        <v>1613.65873881039</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B61" s="5" t="n">
+        <v>1608.31580361849</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B62" s="5" t="n">
+        <v>1602.97181978046</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B63" s="5" t="n">
+        <v>1597.6268339716</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B64" s="5" t="n">
+        <v>1592.28091018662</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B65" s="5" t="n">
+        <v>1586.93412759973</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B66" s="5" t="n">
+        <v>1581.58657866876</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B67" s="5" t="n">
+        <v>1576.23836745558</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B68" s="5" t="n">
+        <v>1570.88960813811</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B69" s="5" t="n">
+        <v>1565.54042369204</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B70" s="5" t="n">
+        <v>1560.19094472296</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B71" s="5" t="n">
+        <v>1554.84130843165</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B72" s="5" t="n">
+        <v>1549.49165769738</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B73" s="5" t="n">
+        <v>1544.14214026575</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B74" s="5" t="n">
+        <v>1538.79290802908</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B75" s="5" t="n">
+        <v>1533.4441163888</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B76" s="5" t="n">
+        <v>1528.09592369051</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B77" s="5" t="n">
+        <v>1522.74849072332</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B78" s="5" t="n">
+        <v>1517.40198027624</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B79" s="5" t="n">
+        <v>1512.05655674501</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B80" s="5" t="n">
+        <v>1506.71238578364</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B81" s="5" t="n">
+        <v>1511.75993818071</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B82" s="5" t="n">
+        <v>1527.74016992475</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B83" s="5" t="n">
+        <v>1555.29250967526</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B84" s="5" t="n">
+        <v>1595.2808210295</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>43988</v>
+      </c>
+      <c r="B85" s="5" t="n">
+        <v>1648.87526380904</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B86" s="5" t="n">
+        <v>1717.62486258736</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B87" s="5" t="n">
+        <v>1803.539280566</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B88" s="5" t="n">
+        <v>1892.11087986998</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B89" s="5" t="n">
+        <v>1984.10640225689</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>43993</v>
+      </c>
+      <c r="B90" s="5" t="n">
+        <v>2079.97392008693</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B91" s="5" t="n">
+        <v>2180.02813260886</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B92" s="5" t="n">
+        <v>2284.53028223528</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B93" s="5" t="n">
+        <v>2393.72277905559</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B94" s="5" t="n">
+        <v>2507.84435442418</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B95" s="5" t="n">
+        <v>2627.13684058179</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B96" s="5" t="n">
+        <v>2751.84834589888</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B97" s="5" t="n">
+        <v>2882.23487598892</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>44001</v>
+      </c>
+      <c r="B98" s="5" t="n">
+        <v>3018.56128211798</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>44002</v>
+      </c>
+      <c r="B99" s="5" t="n">
+        <v>3161.1019158702</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B100" s="5" t="n">
+        <v>3310.14115294043</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B101" s="5" t="n">
+        <v>3465.97385591657</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B102" s="5" t="n">
+        <v>3628.90580579947</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B103" s="5" t="n">
+        <v>3799.25411462255</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B104" s="5" t="n">
+        <v>3977.34762391216</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B105" s="5" t="n">
+        <v>4163.52729029798</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B106" s="5" t="n">
+        <v>4358.14655794623</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B107" s="5" t="n">
+        <v>4561.57171661472</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>44011</v>
+      </c>
+      <c r="B108" s="5" t="n">
+        <v>4774.18224357579</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B109" s="5" t="n">
+        <v>4996.37112722786</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B110" s="5" t="n">
+        <v>5228.54516983755</v>
+      </c>
+      <c r="C110" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3338,7 +6034,7 @@
         <v>43905</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>2209.54374287061</v>
+        <v>1819.58938443975</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -3349,7 +6045,7 @@
         <v>43906</v>
       </c>
       <c r="B3" s="6" t="n">
-        <v>2475.23385077514</v>
+        <v>2068.17303991253</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -3360,7 +6056,7 @@
         <v>43907</v>
       </c>
       <c r="B4" s="6" t="n">
-        <v>2738.49054057254</v>
+        <v>2345.0209636451</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -3371,7 +6067,7 @@
         <v>43908</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>2999.15835561931</v>
+        <v>2619.65912338474</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3382,7 +6078,7 @@
         <v>43909</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>3254.76649201026</v>
+        <v>2891.9654665534</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3393,7 +6089,7 @@
         <v>43910</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>3502.34390686432</v>
+        <v>3158.77943604581</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3404,7 +6100,7 @@
         <v>43911</v>
       </c>
       <c r="B8" s="6" t="n">
-        <v>3739.07960635665</v>
+        <v>3416.37147952245</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3415,7 +6111,7 @@
         <v>43912</v>
       </c>
       <c r="B9" s="6" t="n">
-        <v>3962.5894314681</v>
+        <v>3661.2945178454</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3426,7 +6122,7 @@
         <v>43913</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>4171.02599969449</v>
+        <v>3890.71544724064</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3437,7 +6133,7 @@
         <v>43914</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>4383.10523665574</v>
+        <v>4102.54214962624</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -3448,7 +6144,7 @@
         <v>43915</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>4596.44329011038</v>
+        <v>4318.75626190657</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -3459,7 +6155,7 @@
         <v>43916</v>
       </c>
       <c r="B13" s="6" t="n">
-        <v>4809.91268609668</v>
+        <v>4536.56422543367</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3470,7 +6166,7 @@
         <v>43917</v>
       </c>
       <c r="B14" s="6" t="n">
-        <v>5022.98886105379</v>
+        <v>4754.6430958806</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3481,7 +6177,7 @@
         <v>43918</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>5235.43559235581</v>
+        <v>4972.37583339427</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3492,7 +6188,7 @@
         <v>43919</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>5447.15367681991</v>
+        <v>5189.48316531196</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3503,7 +6199,7 @@
         <v>43920</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>5658.10823474077</v>
+        <v>5405.84647916095</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3514,7 +6210,7 @@
         <v>43921</v>
       </c>
       <c r="B18" s="6" t="n">
-        <v>5868.29387267528</v>
+        <v>5621.42272297247</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3525,7 +6221,7 @@
         <v>43922</v>
       </c>
       <c r="B19" s="6" t="n">
-        <v>6077.71806645673</v>
+        <v>5836.20360904124</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3536,7 +6232,7 @@
         <v>43923</v>
       </c>
       <c r="B20" s="6" t="n">
-        <v>6286.39330478105</v>
+        <v>6050.19614093843</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3547,7 +6243,7 @@
         <v>43924</v>
       </c>
       <c r="B21" s="6" t="n">
-        <v>6494.33343752909</v>
+        <v>6263.41339445699</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3558,7 +6254,7 @@
         <v>43925</v>
       </c>
       <c r="B22" s="6" t="n">
-        <v>6701.55203544968</v>
+        <v>6475.87022134255</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3569,7 +6265,7 @@
         <v>43926</v>
       </c>
       <c r="B23" s="6" t="n">
-        <v>6908.06170591609</v>
+        <v>6687.58130905622</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3580,7 +6276,7 @@
         <v>43927</v>
       </c>
       <c r="B24" s="6" t="n">
-        <v>7113.87385767014</v>
+        <v>6898.56036152441</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3591,7 +6287,7 @@
         <v>43928</v>
       </c>
       <c r="B25" s="6" t="n">
-        <v>7318.99867146973</v>
+        <v>7108.8198073024</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3602,7 +6298,7 @@
         <v>43929</v>
       </c>
       <c r="B26" s="6" t="n">
-        <v>7523.44516063524</v>
+        <v>7318.37075050489</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3613,7 +6309,7 @@
         <v>43930</v>
       </c>
       <c r="B27" s="6" t="n">
-        <v>7727.22126660737</v>
+        <v>7527.22302857045</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3624,7 +6320,7 @@
         <v>43931</v>
       </c>
       <c r="B28" s="6" t="n">
-        <v>7930.33396397382</v>
+        <v>7735.38531245867</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3635,7 +6331,7 @@
         <v>43932</v>
       </c>
       <c r="B29" s="6" t="n">
-        <v>8132.7893634664</v>
+        <v>7942.86521923198</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3646,7 +6342,7 @@
         <v>43933</v>
       </c>
       <c r="B30" s="6" t="n">
-        <v>8334.59280811261</v>
+        <v>8149.6694234244</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3657,7 +6353,7 @@
         <v>43934</v>
       </c>
       <c r="B31" s="6" t="n">
-        <v>8535.74896086718</v>
+        <v>8355.80376143287</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3668,7 +6364,7 @@
         <v>43935</v>
       </c>
       <c r="B32" s="6" t="n">
-        <v>8736.26188349433</v>
+        <v>8561.27332685735</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3679,7 +6375,7 @@
         <v>43936</v>
       </c>
       <c r="B33" s="6" t="n">
-        <v>8936.1351071047</v>
+        <v>8766.08255641858</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3690,7 +6386,7 @@
         <v>43937</v>
       </c>
       <c r="B34" s="6" t="n">
-        <v>9135.37169500071</v>
+        <v>8970.2353068354</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3701,7 +6397,7 @@
         <v>43938</v>
       </c>
       <c r="B35" s="6" t="n">
-        <v>9333.97429855379</v>
+        <v>9173.73492334475</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3712,7 +6408,7 @@
         <v>43939</v>
       </c>
       <c r="B36" s="6" t="n">
-        <v>9531.94520682649</v>
+        <v>9376.58430063941</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3723,7 +6419,7 @@
         <v>43940</v>
       </c>
       <c r="B37" s="6" t="n">
-        <v>9729.2863906066</v>
+        <v>9578.78593699272</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3734,7 +6430,7 @@
         <v>43941</v>
       </c>
       <c r="B38" s="6" t="n">
-        <v>9925.99954146345</v>
+        <v>9780.34198229454</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3745,7 +6441,7 @@
         <v>43942</v>
       </c>
       <c r="B39" s="6" t="n">
-        <v>10122.0861063765</v>
+        <v>9981.25428066119</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3756,7 +6452,7 @@
         <v>43943</v>
       </c>
       <c r="B40" s="6" t="n">
-        <v>10317.5473184294</v>
+        <v>10181.5244082183</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3767,7 +6463,7 @@
         <v>43944</v>
       </c>
       <c r="B41" s="6" t="n">
-        <v>10512.3842240101</v>
+        <v>10381.1537065933</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3778,7 +6474,7 @@
         <v>43945</v>
       </c>
       <c r="B42" s="6" t="n">
-        <v>10706.5977069091</v>
+        <v>10580.1433125985</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3789,7 +6485,7 @@
         <v>43946</v>
       </c>
       <c r="B43" s="6" t="n">
-        <v>10900.1885096645</v>
+        <v>10778.4941845301</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3800,7 +6496,7 @@
         <v>43947</v>
       </c>
       <c r="B44" s="6" t="n">
-        <v>11093.1572524651</v>
+        <v>10976.2071254654</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3811,7 +6507,7 @@
         <v>43948</v>
       </c>
       <c r="B45" s="6" t="n">
-        <v>11285.5044498867</v>
+        <v>11173.2828038963</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3822,7 +6518,7 @@
         <v>43949</v>
       </c>
       <c r="B46" s="6" t="n">
-        <v>11477.2305257061</v>
+        <v>11369.7217719985</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3833,7 +6529,7 @@
         <v>43950</v>
       </c>
       <c r="B47" s="6" t="n">
-        <v>11668.3358260115</v>
+        <v>11565.5244818049</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3844,7 +6540,7 @@
         <v>43951</v>
       </c>
       <c r="B48" s="6" t="n">
-        <v>11858.820630801</v>
+        <v>11760.6912995191</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3855,9 +6551,680 @@
         <v>43952</v>
       </c>
       <c r="B49" s="6" t="n">
-        <v>12048.6851642417</v>
+        <v>11955.2225181809</v>
       </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B50" s="6" t="n">
+        <v>12149.1183688691</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B51" s="6" t="n">
+        <v>12342.3790306092</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B52" s="6" t="n">
+        <v>12535.0046391312</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B53" s="6" t="n">
+        <v>12726.99529461</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B54" s="6" t="n">
+        <v>12918.3510685029</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B55" s="6" t="n">
+        <v>13109.0720095869</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B56" s="6" t="n">
+        <v>13299.1581492876</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B57" s="6" t="n">
+        <v>13488.6095063803</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B58" s="6" t="n">
+        <v>13677.426091134</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B59" s="6" t="n">
+        <v>13865.6079089623</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B60" s="6" t="n">
+        <v>14053.1549636387</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B61" s="6" t="n">
+        <v>14240.0672601232</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B62" s="6" t="n">
+        <v>14426.3448070473</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B63" s="6" t="n">
+        <v>14611.987618895</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B64" s="6" t="n">
+        <v>14796.9957179147</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B65" s="6" t="n">
+        <v>14981.3691357932</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B66" s="6" t="n">
+        <v>15165.1079151177</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B67" s="6" t="n">
+        <v>15348.2121106523</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B68" s="6" t="n">
+        <v>15530.6817904477</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B69" s="6" t="n">
+        <v>15712.5170368046</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B70" s="6" t="n">
+        <v>15893.7179471077</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B71" s="6" t="n">
+        <v>16074.2846345437</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B72" s="6" t="n">
+        <v>16254.2172287182</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B73" s="6" t="n">
+        <v>16433.5158761822</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B74" s="6" t="n">
+        <v>16612.1807408778</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B75" s="6" t="n">
+        <v>16790.2120045145</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B76" s="6" t="n">
+        <v>16967.6098668814</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B77" s="6" t="n">
+        <v>17144.3745461049</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B78" s="6" t="n">
+        <v>17320.5062788563</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B79" s="6" t="n">
+        <v>17496.0053205164</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B80" s="6" t="n">
+        <v>17670.8719453011</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B81" s="6" t="n">
+        <v>17855.4967505383</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B82" s="6" t="n">
+        <v>18050.4208370679</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B83" s="6" t="n">
+        <v>18256.9487764582</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B84" s="6" t="n">
+        <v>18476.9568372154</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>43988</v>
+      </c>
+      <c r="B85" s="6" t="n">
+        <v>18712.8310645085</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B86" s="6" t="n">
+        <v>18967.4863189854</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B87" s="6" t="n">
+        <v>19244.4423733006</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B88" s="6" t="n">
+        <v>19530.8675051193</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B89" s="6" t="n">
+        <v>19829.4097474049</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>43993</v>
+      </c>
+      <c r="B90" s="6" t="n">
+        <v>20141.565281576</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B91" s="6" t="n">
+        <v>20468.3529376657</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B92" s="6" t="n">
+        <v>20810.6047279402</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B93" s="6" t="n">
+        <v>21169.0913527009</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B94" s="6" t="n">
+        <v>21544.576793928</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B95" s="6" t="n">
+        <v>21937.8424563871</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B96" s="6" t="n">
+        <v>22349.6982497582</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B97" s="6" t="n">
+        <v>22780.9880890132</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>44001</v>
+      </c>
+      <c r="B98" s="6" t="n">
+        <v>23232.5930269409</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>44002</v>
+      </c>
+      <c r="B99" s="6" t="n">
+        <v>23705.4333996849</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B100" s="6" t="n">
+        <v>24200.4705779783</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B101" s="6" t="n">
+        <v>24718.7085777857</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B102" s="6" t="n">
+        <v>25261.1956382199</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B103" s="6" t="n">
+        <v>25829.0258117717</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B104" s="6" t="n">
+        <v>26423.3405847399</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B105" s="6" t="n">
+        <v>27045.3305339095</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B106" s="6" t="n">
+        <v>27696.2370202468</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B107" s="6" t="n">
+        <v>28377.3539178972</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>44011</v>
+      </c>
+      <c r="B108" s="6" t="n">
+        <v>29090.0293754528</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B109" s="6" t="n">
+        <v>29835.6676056222</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B110" s="6" t="n">
+        <v>30615.7306987593</v>
+      </c>
+      <c r="C110" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4622,37 +7989,37 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>5</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>148</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157">
@@ -4662,27 +8029,27 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>154</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163">
@@ -4837,27 +8204,27 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>5</v>
+        <v>186</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="198">
@@ -4867,272 +8234,272 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>5</v>
+        <v>191</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>190</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>192</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>5</v>
+        <v>195</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>194</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>198</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>5</v>
+        <v>201</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>200</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>202</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>5</v>
+        <v>205</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>5</v>
+        <v>207</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>206</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>208</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>5</v>
+        <v>211</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>210</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>5</v>
+        <v>213</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>212</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>213</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>215</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>5</v>
+        <v>218</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>216</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>217</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>5</v>
+        <v>218</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>219</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>5</v>
+        <v>222</v>
       </c>
     </row>
     <row r="253">
@@ -5142,17 +8509,17 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>223</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257">
@@ -5162,32 +8529,32 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>5</v>
+        <v>227</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>226</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>5</v>
+        <v>229</v>
       </c>
     </row>
     <row r="264">
@@ -5197,22 +8564,22 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>230</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>231</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269">
@@ -5257,76 +8624,96 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>242</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>13</v>
+        <v>246</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
         <v>5</v>
       </c>
     </row>

--- a/vignettes/Alameda-May4-v6 output.xlsx
+++ b/vignettes/Alameda-May4-v6 output.xlsx
@@ -473,7 +473,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-07 13:12:37"</t>
+    <t xml:space="preserve">[1] "2020-05-07 13:55:24"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>

--- a/vignettes/Alameda-May4-v6 output.xlsx
+++ b/vignettes/Alameda-May4-v6 output.xlsx
@@ -473,7 +473,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-07 13:55:24"</t>
+    <t xml:space="preserve">[1] "2020-05-08 11:21:47"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>

--- a/vignettes/Alameda-May4-v6 output.xlsx
+++ b/vignettes/Alameda-May4-v6 output.xlsx
@@ -473,7 +473,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-08 11:21:47"</t>
+    <t xml:space="preserve">[1] "2020-05-14 09:14:55"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">     version </t>
   </si>
   <si>
-    <t xml:space="preserve">"0.3.0.9004" </t>
+    <t xml:space="preserve">"0.3.0.9005" </t>
   </si>
   <si>
     <t xml:space="preserve">$hosp.bounds</t>

--- a/vignettes/Alameda-May4-v6 output.xlsx
+++ b/vignettes/Alameda-May4-v6 output.xlsx
@@ -473,7 +473,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-14 09:14:55"</t>
+    <t xml:space="preserve">[1] "2020-05-16 17:06:24"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">     version </t>
   </si>
   <si>
-    <t xml:space="preserve">"0.3.0.9005" </t>
+    <t xml:space="preserve">"0.3.0.9006" </t>
   </si>
   <si>
     <t xml:space="preserve">$hosp.bounds</t>

--- a/vignettes/Alameda-May4-v6 output.xlsx
+++ b/vignettes/Alameda-May4-v6 output.xlsx
@@ -473,7 +473,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-16 17:06:24"</t>
+    <t xml:space="preserve">[1] "2020-05-18 12:23:08"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>

--- a/vignettes/Alameda-May4-v6 output.xlsx
+++ b/vignettes/Alameda-May4-v6 output.xlsx
@@ -473,7 +473,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-18 12:23:08"</t>
+    <t xml:space="preserve">[1] "2020-06-17 14:39:03"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>
